--- a/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem5/correct_predictions.xlsx
+++ b/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem5/correct_predictions.xlsx
@@ -471,17 +471,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,17 +501,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ensure the aircraft remains within your line of sight and fly with caution</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -531,57 +531,57 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fly with caution and land in a safe place ASAP</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19-28</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -591,12 +591,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,17 +621,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Aircraft in Altitude Zone</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -651,17 +651,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Max altitude set to nnn</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -711,27 +711,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -741,27 +741,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Ensure the aircraft remains within your line of sight and fly with caution</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -771,27 +771,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Fly with caution and land in a safe place ASAP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>19-28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -801,27 +801,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -831,27 +831,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -861,17 +861,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -891,27 +891,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
